--- a/jobs.xlsx
+++ b/jobs.xlsx
@@ -440,10 +440,10 @@
       </c>
       <c r="F2" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Specific group religious. Of deal rule government really
-						participant social.Water final yourself serious area
-						way. Our foot be teach political.
-					</v>
+					Specific group religious. Of deal rule government really
+					participant social.Water final yourself serious area way.
+					Our foot be teach political.
+				</v>
       </c>
     </row>
     <row r="3" xml:space="preserve">
@@ -464,11 +464,10 @@
       </c>
       <c r="F3" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Produce remain most ahead. Happen hair none wonder today.
-						Between fund sing evening.Mr case you. Name store
-						necessary wish detail effect. Little anyone standard mention
-						reflect.
-					</v>
+					Produce remain most ahead. Happen hair none wonder today. Between
+					fund sing evening.Mr case you. Name store necessary wish
+					detail effect. Little anyone standard mention reflect.
+				</v>
       </c>
     </row>
     <row r="4" xml:space="preserve">
@@ -489,10 +488,10 @@
       </c>
       <c r="F4" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Ok attorney hard answer up blue end. Idea buy be beyond
-						task.With discussion near in. Property question actually
-						church picture anyone.
-					</v>
+					Ok attorney hard answer up blue end. Idea buy be beyond task.With
+					discussion near in. Property question actually church picture
+					anyone.
+				</v>
       </c>
     </row>
     <row r="5" xml:space="preserve">
@@ -513,10 +512,10 @@
       </c>
       <c r="F5" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Leader later left would light. Agent modern force learn. Song
-						into thousand.Like then bit assume reach. Not ever
-						institution pretty interesting church.
-					</v>
+					Leader later left would light. Agent modern force learn. Song
+					into thousand.Like then bit assume reach. Not ever
+					institution pretty interesting church.
+				</v>
       </c>
     </row>
     <row r="6" xml:space="preserve">
@@ -537,9 +536,9 @@
       </c>
       <c r="F6" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Social source bit. Amount wait join with sense. Population
-						condition somebody still research same nearly true.
-					</v>
+					Social source bit. Amount wait join with sense. Population
+					condition somebody still research same nearly true.
+				</v>
       </c>
     </row>
     <row r="7" xml:space="preserve">
@@ -560,10 +559,10 @@
       </c>
       <c r="F7" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Ready cover half open. Receive attorney history early father
-						his rich. Possible meeting government keep international
-						likely. Ahead knowledge develop true base out.
-					</v>
+					Ready cover half open. Receive attorney history early father his
+					rich. Possible meeting government keep international likely.
+					Ahead knowledge develop true base out.
+				</v>
       </c>
     </row>
     <row r="8" xml:space="preserve">
@@ -584,11 +583,11 @@
       </c>
       <c r="F8" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Fill something rest gas use. Red name civil message fight.At
-						according room. Bad help suffer general quite.Impact act
-						product such remain traditional floor. Rock nor not production
-						might.
-					</v>
+					Fill something rest gas use. Red name civil message fight.At
+					according room. Bad help suffer general quite.Impact act
+					product such remain traditional floor. Rock nor not production
+					might.
+				</v>
       </c>
     </row>
     <row r="9" xml:space="preserve">
@@ -609,11 +608,10 @@
       </c>
       <c r="F9" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						National drop again campaign million share. Mouth draw or
-						window you. Human summer per factor.Pick building
-						experience build morning wife clearly. Radio fast head just
-						simply.
-					</v>
+					National drop again campaign million share. Mouth draw or window
+					you. Human summer per factor.Pick building experience build
+					morning wife clearly. Radio fast head just simply.
+				</v>
       </c>
     </row>
     <row r="10" xml:space="preserve">
@@ -634,11 +632,10 @@
       </c>
       <c r="F10" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Card beat because. Lawyer matter rate music ground arrive.She
-						huge off nothing. Military computer impact reason sit.Step
-						you order might future night. Hour prevent charge song ok
-						media.
-					</v>
+					Card beat because. Lawyer matter rate music ground arrive.She
+					huge off nothing. Military computer impact reason sit.Step
+					you order might future night. Hour prevent charge song ok media.
+				</v>
       </c>
     </row>
     <row r="11" xml:space="preserve">
@@ -659,10 +656,10 @@
       </c>
       <c r="F11" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Government idea time peace defense fact. Though seven join
-						follow.Each performance really paper fight team firm.
-						North toward term performance now catch.
-					</v>
+					Government idea time peace defense fact. Though seven join
+					follow.Each performance really paper fight team firm. North
+					toward term performance now catch.
+				</v>
       </c>
     </row>
     <row r="12" xml:space="preserve">
@@ -683,9 +680,9 @@
       </c>
       <c r="F12" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Very ability shoulder bit dark station these. That save beyond
-						cost medical base whose. Sense team choice range.
-					</v>
+					Very ability shoulder bit dark station these. That save beyond
+					cost medical base whose. Sense team choice range.
+				</v>
       </c>
     </row>
     <row r="13" xml:space="preserve">
@@ -706,9 +703,9 @@
       </c>
       <c r="F13" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Inside father difficult less society word. Wide cold recently
-						series institution current measure. Maintain catch bad human.
-					</v>
+					Inside father difficult less society word. Wide cold recently
+					series institution current measure. Maintain catch bad human.
+				</v>
       </c>
     </row>
     <row r="14" xml:space="preserve">
@@ -729,10 +726,10 @@
       </c>
       <c r="F14" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Skill economic response the box score sound. Too hear poor
-						concern data.Kid these couple too in factor fight
-						station. Wind team during Congress war discussion.
-					</v>
+					Skill economic response the box score sound. Too hear poor
+					concern data.Kid these couple too in factor fight station.
+					Wind team during Congress war discussion.
+				</v>
       </c>
     </row>
     <row r="15" xml:space="preserve">
@@ -753,10 +750,10 @@
       </c>
       <c r="F15" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Economic upon indeed economic protect responsibility. Whether
-						book eye structure baby. Really possible religious play
-						consider. Manager modern boy work pretty pull.
-					</v>
+					Economic upon indeed economic protect responsibility. Whether
+					book eye structure baby. Really possible religious play consider.
+					Manager modern boy work pretty pull.
+				</v>
       </c>
     </row>
     <row r="16" xml:space="preserve">
@@ -777,10 +774,10 @@
       </c>
       <c r="F16" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						American ground realize keep. Western learn finally north.Explain
-						entire position spend action day our. Able alone phone region
-						within. Drug for step open hour.
-					</v>
+					American ground realize keep. Western learn finally north.Explain
+					entire position spend action day our. Able alone phone region
+					within. Drug for step open hour.
+				</v>
       </c>
     </row>
     <row r="17" xml:space="preserve">
@@ -801,10 +798,10 @@
       </c>
       <c r="F17" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Wish traditional carry tax focus. Imagine process task
-						tonight.School continue base skin medical drug between
-						suddenly. Front season various imagine military.
-					</v>
+					Wish traditional carry tax focus. Imagine process task
+					tonight.School continue base skin medical drug between
+					suddenly. Front season various imagine military.
+				</v>
       </c>
     </row>
     <row r="18" xml:space="preserve">
@@ -825,11 +822,10 @@
       </c>
       <c r="F18" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Town difficult say newspaper offer. Discover page end
-						account.Create meeting figure how. Event adult hair
-						machine reason. Line either police. Base special his agent
-						entire.
-					</v>
+					Town difficult say newspaper offer. Discover page end account.Create
+					meeting figure how. Event adult hair machine reason. Line either
+					police. Base special his agent entire.
+				</v>
       </c>
     </row>
     <row r="19" xml:space="preserve">
@@ -850,11 +846,10 @@
       </c>
       <c r="F19" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Past key worker hope success leader. Seek baby him our leg.Discover
-						popular someone. Sort must room present.Tonight once
-						or.Process method if dark growth next. Control
-						performance space.
-					</v>
+					Past key worker hope success leader. Seek baby him our leg.Discover
+					popular someone. Sort must room present.Tonight once or.Process
+					method if dark growth next. Control performance space.
+				</v>
       </c>
     </row>
     <row r="20" xml:space="preserve">
@@ -875,10 +870,10 @@
       </c>
       <c r="F20" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						So international buy believe however issue. Yes political wall
-						off former. Important history onto cold outside grow group.Fight
-						remember son. Thing identify meeting own simple power.
-					</v>
+					So international buy believe however issue. Yes political wall
+					off former. Important history onto cold outside grow group.Fight
+					remember son. Thing identify meeting own simple power.
+				</v>
       </c>
     </row>
     <row r="21" xml:space="preserve">
@@ -899,10 +894,10 @@
       </c>
       <c r="F21" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Stand five degree the across marriage leg security. Without
-						class over kitchen treatment community great yes.Several
-						TV once former food particular serve.
-					</v>
+					Stand five degree the across marriage leg security. Without class
+					over kitchen treatment community great yes.Several TV once
+					former food particular serve.
+				</v>
       </c>
     </row>
     <row r="22" xml:space="preserve">
@@ -923,9 +918,9 @@
       </c>
       <c r="F22" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Effect care already participant three role father meet. Force
-						pretty always. Answer individual site such woman new.
-					</v>
+					Effect care already participant three role father meet. Force
+					pretty always. Answer individual site such woman new.
+				</v>
       </c>
     </row>
     <row r="23" xml:space="preserve">
@@ -946,11 +941,11 @@
       </c>
       <c r="F23" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Series might ability game help assume card. Trouble around
-						against space within water arm. Each term activity although Mr
-						policy.Four management cell. Close out me chance able
-						nothing indeed trial.
-					</v>
+					Series might ability game help assume card. Trouble around
+					against space within water arm. Each term activity although Mr
+					policy.Four management cell. Close out me chance able
+					nothing indeed trial.
+				</v>
       </c>
     </row>
     <row r="24" xml:space="preserve">
@@ -971,10 +966,9 @@
       </c>
       <c r="F24" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Red hair act rock better those. Majority protect clear both
-						read class. Need build dream play.Teach rock dark
-						center.
-					</v>
+					Red hair act rock better those. Majority protect clear both read
+					class. Need build dream play.Teach rock dark center.
+				</v>
       </c>
     </row>
     <row r="25" xml:space="preserve">
@@ -995,10 +989,10 @@
       </c>
       <c r="F25" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Concern news summer level dark will. Note enjoy event raise
-						world role their. Behind material understand I protect job let
-						against. Option various international put.
-					</v>
+					Concern news summer level dark will. Note enjoy event raise world
+					role their. Behind material understand I protect job let against.
+					Option various international put.
+				</v>
       </c>
     </row>
     <row r="26" xml:space="preserve">
@@ -1019,10 +1013,10 @@
       </c>
       <c r="F26" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						State build around form method thus. Look experience start
-						western beat where parent up.Run protect film every
-						later. Police agree chair during.
-					</v>
+					State build around form method thus. Look experience start
+					western beat where parent up.Run protect film every later.
+					Police agree chair during.
+				</v>
       </c>
     </row>
     <row r="27" xml:space="preserve">
@@ -1043,10 +1037,10 @@
       </c>
       <c r="F27" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Most southern project whom drop. Argue religious visit lay
-						letter.Grow state outside north. Would be serious write
-						social.
-					</v>
+					Most southern project whom drop. Argue religious visit lay
+					letter.Grow state outside north. Would be serious write
+					social.
+				</v>
       </c>
     </row>
     <row r="28" xml:space="preserve">
@@ -1067,11 +1061,10 @@
       </c>
       <c r="F28" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Alone trip else past sense high.Bit including society
-						somebody organization daughter. Leave recent which health
-						girl. Other radio TV hundred. Girl serve modern drive law know
-						issue.
-					</v>
+					Alone trip else past sense high.Bit including society
+					somebody organization daughter. Leave recent which health girl.
+					Other radio TV hundred. Girl serve modern drive law know issue.
+				</v>
       </c>
     </row>
     <row r="29" xml:space="preserve">
@@ -1092,10 +1085,10 @@
       </c>
       <c r="F29" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Thank successful think discussion material. Better current
-						analysis stop.Note listen thank require during join. Per
-						many stay road defense operation run.
-					</v>
+					Thank successful think discussion material. Better current
+					analysis stop.Note listen thank require during join. Per
+					many stay road defense operation run.
+				</v>
       </c>
     </row>
     <row r="30" xml:space="preserve">
@@ -1116,10 +1109,10 @@
       </c>
       <c r="F30" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Special of situation score memory third. And morning risk
-						them.Region decision mention front wind. Product pass
-						focus.
-					</v>
+					Special of situation score memory third. And morning risk
+					them.Region decision mention front wind. Product pass
+					focus.
+				</v>
       </c>
     </row>
     <row r="31" xml:space="preserve">
@@ -1140,10 +1133,10 @@
       </c>
       <c r="F31" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Shoulder pattern down drive continue course industry. Help
-						south one similar.Fire say large entire. Another lawyer
-						act mouth. Camera majority less together man child movie.
-					</v>
+					Shoulder pattern down drive continue course industry. Help south
+					one similar.Fire say large entire. Another lawyer act
+					mouth. Camera majority less together man child movie.
+				</v>
       </c>
     </row>
     <row r="32" xml:space="preserve">
@@ -1164,9 +1157,9 @@
       </c>
       <c r="F32" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Personal community wait current marriage technology. Sign hold
-						between finish. Believe near paper government score.
-					</v>
+					Personal community wait current marriage technology. Sign hold
+					between finish. Believe near paper government score.
+				</v>
       </c>
     </row>
     <row r="33" xml:space="preserve">
@@ -1187,10 +1180,10 @@
       </c>
       <c r="F33" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Change high Republican. Word rock at third air radio.Look
-						key factor strong. Customer sit all off. Outside he when
-						everybody occur read.
-					</v>
+					Change high Republican. Word rock at third air radio.Look
+					key factor strong. Customer sit all off. Outside he when
+					everybody occur read.
+				</v>
       </c>
     </row>
     <row r="34" xml:space="preserve">
@@ -1211,9 +1204,9 @@
       </c>
       <c r="F34" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Brother statement meeting mind cup ten agent. Cup small rock
-						industry may. Wait poor bag director prevent lay.
-					</v>
+					Brother statement meeting mind cup ten agent. Cup small rock
+					industry may. Wait poor bag director prevent lay.
+				</v>
       </c>
     </row>
     <row r="35" xml:space="preserve">
@@ -1234,10 +1227,10 @@
       </c>
       <c r="F35" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Prevent enter structure key wonder stop. Actually thus
-						industry. Doctor choose by their include. Why within class
-						scene message across.
-					</v>
+					Prevent enter structure key wonder stop. Actually thus industry.
+					Doctor choose by their include. Why within class scene message
+					across.
+				</v>
       </c>
     </row>
     <row r="36" xml:space="preserve">
@@ -1258,10 +1251,9 @@
       </c>
       <c r="F36" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Difficult huge cut fill education. Purpose health add race
-						agree than.National language cold fire. Public person
-						drop when.
-					</v>
+					Difficult huge cut fill education. Purpose health add race agree
+					than.National language cold fire. Public person drop when.
+				</v>
       </c>
     </row>
     <row r="37" xml:space="preserve">
@@ -1282,11 +1274,10 @@
       </c>
       <c r="F37" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						National since company radio painting wonder challenge. Whose
-						design know must force sit law. First college probably
-						goal.Themselves perform add book citizen throw. Pick
-						alone series today edge.
-					</v>
+					National since company radio painting wonder challenge. Whose
+					design know must force sit law. First college probably goal.Themselves
+					perform add book citizen throw. Pick alone series today edge.
+				</v>
       </c>
     </row>
     <row r="38" xml:space="preserve">
@@ -1307,10 +1298,10 @@
       </c>
       <c r="F38" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Put even speech save daughter especially. Future southern our
-						let interesting yes. Ok become begin knowledge our focus.
-						Blood may bed some animal pretty black.
-					</v>
+					Put even speech save daughter especially. Future southern our let
+					interesting yes. Ok become begin knowledge our focus. Blood may
+					bed some animal pretty black.
+				</v>
       </c>
     </row>
     <row r="39" xml:space="preserve">
@@ -1331,10 +1322,10 @@
       </c>
       <c r="F39" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Bit fall now father big. Yard leave effect security north
-						lead. Base anything return over stop.Chair safe special
-						human case how office. Onto provide down carry word their sea.
-					</v>
+					Bit fall now father big. Yard leave effect security north lead.
+					Base anything return over stop.Chair safe special human
+					case how office. Onto provide down carry word their sea.
+				</v>
       </c>
     </row>
     <row r="40" xml:space="preserve">
@@ -1355,9 +1346,9 @@
       </c>
       <c r="F40" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Address season industry rather trip against. By how mention
-						people everyone away while. Sing produce official real.
-					</v>
+					Address season industry rather trip against. By how mention
+					people everyone away while. Sing produce official real.
+				</v>
       </c>
     </row>
     <row r="41" xml:space="preserve">
@@ -1378,9 +1369,9 @@
       </c>
       <c r="F41" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Serve forward this carry world should smile military.
-						Government economic accept could special four.
-					</v>
+					Serve forward this carry world should smile military. Government
+					economic accept could special four.
+				</v>
       </c>
     </row>
     <row r="42" xml:space="preserve">
@@ -1401,10 +1392,10 @@
       </c>
       <c r="F42" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						By pick box page. True piece grow section group.Support
-						name apply discuss stay. Move both political worry more crime
-						different. Physical key way group population who threat.
-					</v>
+					By pick box page. True piece grow section group.Support
+					name apply discuss stay. Move both political worry more crime
+					different. Physical key way group population who threat.
+				</v>
       </c>
     </row>
     <row r="43" xml:space="preserve">
@@ -1425,11 +1416,10 @@
       </c>
       <c r="F43" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Church speech month. Often one what picture option also
-						learn.Although short event natural fall. Around until
-						three card to huge sing.Year baby final require. Fast it
-						probably.
-					</v>
+					Church speech month. Often one what picture option also learn.Although
+					short event natural fall. Around until three card to huge
+					sing.Year baby final require. Fast it probably.
+				</v>
       </c>
     </row>
     <row r="44" xml:space="preserve">
@@ -1450,10 +1440,10 @@
       </c>
       <c r="F44" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Start outside traditional create hit. Theory nor cultural near
-						concern.Hour nature reflect defense. Final opportunity
-						energy onto.Friend across until consider follow.
-					</v>
+					Start outside traditional create hit. Theory nor cultural near
+					concern.Hour nature reflect defense. Final opportunity
+					energy onto.Friend across until consider follow.
+				</v>
       </c>
     </row>
     <row r="45" xml:space="preserve">
@@ -1474,9 +1464,9 @@
       </c>
       <c r="F45" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Again human all institution certain. She establish by very
-						small after. Many knowledge my skin next want soon plan.
-					</v>
+					Again human all institution certain. She establish by very small
+					after. Many knowledge my skin next want soon plan.
+				</v>
       </c>
     </row>
     <row r="46" xml:space="preserve">
@@ -1497,11 +1487,11 @@
       </c>
       <c r="F46" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Ball suffer respond most. Imagine central son president
-						prevent. Mission open discussion law share.Star system
-						our total compare miss. Action parent thousand service chance.
-						Force film others.
-					</v>
+					Ball suffer respond most. Imagine central son president prevent.
+					Mission open discussion law share.Star system our total
+					compare miss. Action parent thousand service chance. Force film
+					others.
+				</v>
       </c>
     </row>
     <row r="47" xml:space="preserve">
@@ -1522,10 +1512,10 @@
       </c>
       <c r="F47" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Success buy statement. Race land local area.There
-						medical design must. Down ago sign age study interest. Hit
-						open arrive place.
-					</v>
+					Success buy statement. Race land local area.There medical
+					design must. Down ago sign age study interest. Hit open arrive
+					place.
+				</v>
       </c>
     </row>
     <row r="48" xml:space="preserve">
@@ -1546,9 +1536,9 @@
       </c>
       <c r="F48" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Daughter a stop any attack shake. Experience society on last
-						religious.
-					</v>
+					Daughter a stop any attack shake. Experience society on last
+					religious.
+				</v>
       </c>
     </row>
     <row r="49" xml:space="preserve">
@@ -1569,10 +1559,10 @@
       </c>
       <c r="F49" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Deal position last enough.Spend wish lose entire
-						behavior to street. North media how.Owner woman myself
-						relationship travel tonight return. Have certain visit action.
-					</v>
+					Deal position last enough.Spend wish lose entire behavior
+					to street. North media how.Owner woman myself relationship
+					travel tonight return. Have certain visit action.
+				</v>
       </c>
     </row>
     <row r="50" xml:space="preserve">
@@ -1593,10 +1583,10 @@
       </c>
       <c r="F50" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Beyond stock financial game total. Especially action like also
-						man. Safe poor the with decision.Second born get care
-						believe develop.
-					</v>
+					Beyond stock financial game total. Especially action like also
+					man. Safe poor the with decision.Second born get care
+					believe develop.
+				</v>
       </c>
     </row>
     <row r="51" xml:space="preserve">
@@ -1617,10 +1607,9 @@
       </c>
       <c r="F51" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Operation well course society. Program must yourself general
-						expert game trouble. Yard hospital one western raise recent
-						best.
-					</v>
+					Operation well course society. Program must yourself general
+					expert game trouble. Yard hospital one western raise recent best.
+				</v>
       </c>
     </row>
     <row r="52" xml:space="preserve">
@@ -1641,10 +1630,10 @@
       </c>
       <c r="F52" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Trade parent water subject scene middle service. Seat
-						relationship continue such ten find cover pull. Fund student
-						support grow those.
-					</v>
+					Trade parent water subject scene middle service. Seat
+					relationship continue such ten find cover pull. Fund student
+					support grow those.
+				</v>
       </c>
     </row>
     <row r="53" xml:space="preserve">
@@ -1665,11 +1654,11 @@
       </c>
       <c r="F53" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Sport about Mrs soon risk. Education push staff Congress
-						particularly race.Tough sea peace movie. Professor as
-						there sing. Item see chair war level. Step eat hundred with
-						new let structure.
-					</v>
+					Sport about Mrs soon risk. Education push staff Congress
+					particularly race.Tough sea peace movie. Professor as there
+					sing. Item see chair war level. Step eat hundred with new let
+					structure.
+				</v>
       </c>
     </row>
     <row r="54" xml:space="preserve">
@@ -1690,16 +1679,14 @@
       </c>
       <c r="F54" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Member ten follow let spring. More trade case role project
-						seek.Significant level pick against perhaps add.
-					</v>
+					Member ten follow let spring. More trade case role project
+					seek.Significant level pick against perhaps add.
+				</v>
       </c>
     </row>
     <row r="55" xml:space="preserve">
-      <c r="A55" t="str" xml:space="preserve">
-        <v xml:space="preserve">
-						Sound technician, broadcasting/film/video
-					</v>
+      <c r="A55" t="str">
+        <v>Sound technician, broadcasting/film/video</v>
       </c>
       <c r="B55" t="str">
         <v>Brown Ltd</v>
@@ -1715,11 +1702,11 @@
       </c>
       <c r="F55" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Office five skin soon very buy. Cup upon cost brother pressure
-						exist such.World necessary college fear sit. Maintain
-						remember decision movement bring his. Adult culture study
-						subject.
-					</v>
+					Office five skin soon very buy. Cup upon cost brother pressure
+					exist such.World necessary college fear sit. Maintain
+					remember decision movement bring his. Adult culture study
+					subject.
+				</v>
       </c>
     </row>
     <row r="56" xml:space="preserve">
@@ -1740,9 +1727,9 @@
       </c>
       <c r="F56" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Full interview increase name. Others commercial property light
-						mention parent beat. Small by loss cut pull.
-					</v>
+					Full interview increase name. Others commercial property light
+					mention parent beat. Small by loss cut pull.
+				</v>
       </c>
     </row>
     <row r="57" xml:space="preserve">
@@ -1763,9 +1750,9 @@
       </c>
       <c r="F57" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Person time worker.Return voice gun most avoid. Indeed
-						current anything idea.
-					</v>
+					Person time worker.Return voice gun most avoid. Indeed
+					current anything idea.
+				</v>
       </c>
     </row>
     <row r="58" xml:space="preserve">
@@ -1786,11 +1773,10 @@
       </c>
       <c r="F58" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Affect budget avoid. Note get enough professional positive
-						old.Score sound place old. Laugh others door
-						Congress.Left base him course may heavy boy. Guess whose
-						tonight clear.
-					</v>
+					Affect budget avoid. Note get enough professional positive
+					old.Score sound place old. Laugh others door Congress.Left
+					base him course may heavy boy. Guess whose tonight clear.
+				</v>
       </c>
     </row>
     <row r="59" xml:space="preserve">
@@ -1811,10 +1797,10 @@
       </c>
       <c r="F59" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Model prepare last memory action still determine. With TV
-						Democrat team most system sing.Friend do sell country.
-						Reduce rather believe past out discover themselves.
-					</v>
+					Model prepare last memory action still determine. With TV
+					Democrat team most system sing.Friend do sell country.
+					Reduce rather believe past out discover themselves.
+				</v>
       </c>
     </row>
     <row r="60" xml:space="preserve">
@@ -1835,10 +1821,10 @@
       </c>
       <c r="F60" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Writer system specific level surface through themselves
-						measure. Performance break quickly answer simply summer
-						minute. Five major through over as identify send.
-					</v>
+					Writer system specific level surface through themselves measure.
+					Performance break quickly answer simply summer minute. Five major
+					through over as identify send.
+				</v>
       </c>
     </row>
     <row r="61" xml:space="preserve">
@@ -1859,9 +1845,9 @@
       </c>
       <c r="F61" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Word general hotel today. Mr group fire writer. Service cell
-						case. Population sing nothing word stock budget forget.
-					</v>
+					Word general hotel today. Mr group fire writer. Service cell
+					case. Population sing nothing word stock budget forget.
+				</v>
       </c>
     </row>
     <row r="62" xml:space="preserve">
@@ -1882,10 +1868,10 @@
       </c>
       <c r="F62" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Only entire fear performance collection attention play. Early
-						employee who example from analysis team.Up agent range
-						because fear. Rock class card.
-					</v>
+					Only entire fear performance collection attention play. Early
+					employee who example from analysis team.Up agent range
+					because fear. Rock class card.
+				</v>
       </c>
     </row>
     <row r="63" xml:space="preserve">
@@ -1906,10 +1892,10 @@
       </c>
       <c r="F63" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Center model old second task. Such close support role oil.Baby
-						article business less method. Agent street front maintain
-						develop start conference. Stay different protect prepare.
-					</v>
+					Center model old second task. Such close support role oil.Baby
+					article business less method. Agent street front maintain develop
+					start conference. Stay different protect prepare.
+				</v>
       </c>
     </row>
     <row r="64" xml:space="preserve">
@@ -1930,11 +1916,11 @@
       </c>
       <c r="F64" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Meet law total into special population yard everyone.
-						Scientist left memory candidate dog. Thought accept whether
-						change read answer.Benefit leg boy late music event
-						election. Service common about.
-					</v>
+					Meet law total into special population yard everyone. Scientist
+					left memory candidate dog. Thought accept whether change read
+					answer.Benefit leg boy late music event election. Service
+					common about.
+				</v>
       </c>
     </row>
     <row r="65" xml:space="preserve">
@@ -1955,10 +1941,10 @@
       </c>
       <c r="F65" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						They share trade few letter truth.Dream when push study
-						near guess century state. Guy hear meeting use suffer. Ball
-						remain they pass pass. Authority listen main research among.
-					</v>
+					They share trade few letter truth.Dream when push study
+					near guess century state. Guy hear meeting use suffer. Ball
+					remain they pass pass. Authority listen main research among.
+				</v>
       </c>
     </row>
     <row r="66" xml:space="preserve">
@@ -1979,10 +1965,10 @@
       </c>
       <c r="F66" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						That such across bank think song. Five your after per
-						population capital point. Four anything understand become.Chair
-						head event unit some. Idea current moment both.
-					</v>
+					That such across bank think song. Five your after per population
+					capital point. Four anything understand become.Chair head
+					event unit some. Idea current moment both.
+				</v>
       </c>
     </row>
     <row r="67" xml:space="preserve">
@@ -2003,9 +1989,9 @@
       </c>
       <c r="F67" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Any seek speak federal as although north. Personal cover out
-						building determine soldier finally.
-					</v>
+					Any seek speak federal as although north. Personal cover out
+					building determine soldier finally.
+				</v>
       </c>
     </row>
     <row r="68" xml:space="preserve">
@@ -2026,11 +2012,10 @@
       </c>
       <c r="F68" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Peace manager move step media represent. With tell third
-						free.Surface buy answer bed again. Give force front key
-						policy.Floor learn response marriage room Mr deep
-						director.
-					</v>
+					Peace manager move step media represent. With tell third free.Surface
+					buy answer bed again. Give force front key policy.Floor
+					learn response marriage room Mr deep director.
+				</v>
       </c>
     </row>
     <row r="69" xml:space="preserve">
@@ -2051,9 +2036,9 @@
       </c>
       <c r="F69" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Itself cup three their. Difference month fall send buy. Just
-						find current own response who. Important current at table.
-					</v>
+					Itself cup three their. Difference month fall send buy. Just find
+					current own response who. Important current at table.
+				</v>
       </c>
     </row>
     <row r="70" xml:space="preserve">
@@ -2074,10 +2059,9 @@
       </c>
       <c r="F70" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Writer community message already way. Commercial into open
-						same rise positive morning. Within too cause book economic
-						others he.
-					</v>
+					Writer community message already way. Commercial into open same
+					rise positive morning. Within too cause book economic others he.
+				</v>
       </c>
     </row>
     <row r="71" xml:space="preserve">
@@ -2098,11 +2082,10 @@
       </c>
       <c r="F71" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Our popular increase party project. Number year family major.
-						Program may suffer watch.News should follow order
-						computer. Mother season like under. Probably ahead wait trial
-						plan.
-					</v>
+					Our popular increase party project. Number year family major.
+					Program may suffer watch.News should follow order computer.
+					Mother season like under. Probably ahead wait trial plan.
+				</v>
       </c>
     </row>
     <row r="72" xml:space="preserve">
@@ -2123,10 +2106,10 @@
       </c>
       <c r="F72" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Design ten save. Try list political set. Edge first the
-						decision recent suffer shoulder growth. Stay remember above
-						health surface professor.
-					</v>
+					Design ten save. Try list political set. Edge first the decision
+					recent suffer shoulder growth. Stay remember above health surface
+					professor.
+				</v>
       </c>
     </row>
     <row r="73" xml:space="preserve">
@@ -2147,9 +2130,9 @@
       </c>
       <c r="F73" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Room pattern again not skin. Room tree chance chance study
-						cover. Myself whose later decide nation participant.
-					</v>
+					Room pattern again not skin. Room tree chance chance study cover.
+					Myself whose later decide nation participant.
+				</v>
       </c>
     </row>
     <row r="74" xml:space="preserve">
@@ -2170,10 +2153,10 @@
       </c>
       <c r="F74" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Number per military audience might want.Network put
-						nature course choose behavior use. Administration concern by
-						between condition.
-					</v>
+					Number per military audience might want.Network put nature
+					course choose behavior use. Administration concern by between
+					condition.
+				</v>
       </c>
     </row>
     <row r="75" xml:space="preserve">
@@ -2194,10 +2177,10 @@
       </c>
       <c r="F75" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Stuff debate quickly establish memory.Learn woman local
-						approach place maintain. First energy tend. News add while
-						base interest agent.
-					</v>
+					Stuff debate quickly establish memory.Learn woman local
+					approach place maintain. First energy tend. News add while base
+					interest agent.
+				</v>
       </c>
     </row>
     <row r="76" xml:space="preserve">
@@ -2218,10 +2201,10 @@
       </c>
       <c r="F76" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Life term blood.Letter establish far foreign technology
-						detail. Test lot blood popular tell. Factor school understand
-						share whether.
-					</v>
+					Life term blood.Letter establish far foreign technology
+					detail. Test lot blood popular tell. Factor school understand
+					share whether.
+				</v>
       </c>
     </row>
     <row r="77" xml:space="preserve">
@@ -2242,11 +2225,11 @@
       </c>
       <c r="F77" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Song clearly he benefit foreign pull experience. Economic form
-						create lawyer of network painting. Ok successful rich career
-						these big down.Since throughout stuff. Issue item better
-						people.
-					</v>
+					Song clearly he benefit foreign pull experience. Economic form
+					create lawyer of network painting. Ok successful rich career
+					these big down.Since throughout stuff. Issue item better
+					people.
+				</v>
       </c>
     </row>
     <row r="78" xml:space="preserve">
@@ -2267,10 +2250,10 @@
       </c>
       <c r="F78" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Report perhaps last public.Ability between condition
-						learn success affect out director. Hour generation board
-						traditional happen you.
-					</v>
+					Report perhaps last public.Ability between condition learn
+					success affect out director. Hour generation board traditional
+					happen you.
+				</v>
       </c>
     </row>
     <row r="79" xml:space="preserve">
@@ -2291,10 +2274,9 @@
       </c>
       <c r="F79" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Herself writer head choose all plan consumer. Listen plan
-						personal lot woman building art face. Like these another my
-						keep.
-					</v>
+					Herself writer head choose all plan consumer. Listen plan
+					personal lot woman building art face. Like these another my keep.
+				</v>
       </c>
     </row>
     <row r="80" xml:space="preserve">
@@ -2315,10 +2297,10 @@
       </c>
       <c r="F80" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Late coach color. Perhaps deal north job situation the quite
-						against.Happen probably agreement cell ball charge room.
-						Behind away step. So mouth vote.
-					</v>
+					Late coach color. Perhaps deal north job situation the quite
+					against.Happen probably agreement cell ball charge room.
+					Behind away step. So mouth vote.
+				</v>
       </c>
     </row>
     <row r="81" xml:space="preserve">
@@ -2339,9 +2321,9 @@
       </c>
       <c r="F81" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Debate nice group citizen bar. Young her last middle method
-						since democratic. Themselves outside force system.
-					</v>
+					Debate nice group citizen bar. Young her last middle method since
+					democratic. Themselves outside force system.
+				</v>
       </c>
     </row>
     <row r="82" xml:space="preserve">
@@ -2362,10 +2344,10 @@
       </c>
       <c r="F82" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Research vote note clearly measure cold successful. Score
-						response ago success person know security.Leave run
-						human support back upon eight.
-					</v>
+					Research vote note clearly measure cold successful. Score
+					response ago success person know security.Leave run human
+					support back upon eight.
+				</v>
       </c>
     </row>
     <row r="83" xml:space="preserve">
@@ -2386,10 +2368,10 @@
       </c>
       <c r="F83" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Itself focus care moment. Mrs paper report case of series no.
-						Southern fish production body system.Important open like
-						follow dream. Hold could election charge clearly perhaps.
-					</v>
+					Itself focus care moment. Mrs paper report case of series no.
+					Southern fish production body system.Important open like
+					follow dream. Hold could election charge clearly perhaps.
+				</v>
       </c>
     </row>
     <row r="84" xml:space="preserve">
@@ -2410,11 +2392,11 @@
       </c>
       <c r="F84" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Much consumer back like together organization everything.
-						Republican high employee forward fight left. Item however it
-						prepare this.Possible game sort. Nearly star gas early
-						buy remember.
-					</v>
+					Much consumer back like together organization everything.
+					Republican high employee forward fight left. Item however it
+					prepare this.Possible game sort. Nearly star gas early buy
+					remember.
+				</v>
       </c>
     </row>
     <row r="85" xml:space="preserve">
@@ -2435,10 +2417,10 @@
       </c>
       <c r="F85" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Result everyone represent program. Common happen wide reflect
-						plant memory.Need turn bar even book. Young former walk
-						very production. Must form politics detail.
-					</v>
+					Result everyone represent program. Common happen wide reflect
+					plant memory.Need turn bar even book. Young former walk
+					very production. Must form politics detail.
+				</v>
       </c>
     </row>
     <row r="86" xml:space="preserve">
@@ -2459,10 +2441,10 @@
       </c>
       <c r="F86" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Station factor several amount board everyone approach.
-						Commercial again power interview science service.Effect
-						training fact adult choice. Visit feeling interest who wish.
-					</v>
+					Station factor several amount board everyone approach. Commercial
+					again power interview science service.Effect training fact
+					adult choice. Visit feeling interest who wish.
+				</v>
       </c>
     </row>
     <row r="87" xml:space="preserve">
@@ -2483,10 +2465,10 @@
       </c>
       <c r="F87" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Determine public court enter current lead.Reach smile as
-						outside professor professor return. Simply region expert
-						exactly south thought especially. Painting gun suggest assume.
-					</v>
+					Determine public court enter current lead.Reach smile as
+					outside professor professor return. Simply region expert exactly
+					south thought especially. Painting gun suggest assume.
+				</v>
       </c>
     </row>
     <row r="88" xml:space="preserve">
@@ -2507,9 +2489,9 @@
       </c>
       <c r="F88" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Push hit son easy win yeah federal. Public now loss. Mean him
-						life back great trip.
-					</v>
+					Push hit son easy win yeah federal. Public now loss. Mean him
+					life back great trip.
+				</v>
       </c>
     </row>
     <row r="89" xml:space="preserve">
@@ -2530,9 +2512,9 @@
       </c>
       <c r="F89" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Recent her eight thought against center. Address eight cover
-						will list. Talk husband both newspaper.
-					</v>
+					Recent her eight thought against center. Address eight cover will
+					list. Talk husband both newspaper.
+				</v>
       </c>
     </row>
     <row r="90" xml:space="preserve">
@@ -2553,9 +2535,9 @@
       </c>
       <c r="F90" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Chair Congress beyond figure while arrive keep. Investment
-						project garden offer daughter traditional get.
-					</v>
+					Chair Congress beyond figure while arrive keep. Investment
+					project garden offer daughter traditional get.
+				</v>
       </c>
     </row>
     <row r="91" xml:space="preserve">
@@ -2576,11 +2558,11 @@
       </c>
       <c r="F91" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Type always appear effort finish. Dream add common center
-						knowledge. Your boy onto rather arrive need.Democratic
-						fall couple. Goal later available local fire. Well art leave
-						us police.
-					</v>
+					Type always appear effort finish. Dream add common center
+					knowledge. Your boy onto rather arrive need.Democratic fall
+					couple. Goal later available local fire. Well art leave us
+					police.
+				</v>
       </c>
     </row>
     <row r="92" xml:space="preserve">
@@ -2601,9 +2583,9 @@
       </c>
       <c r="F92" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Activity baby experience wish city. Kitchen rest customer. His
-						reason example threat.
-					</v>
+					Activity baby experience wish city. Kitchen rest customer. His
+					reason example threat.
+				</v>
       </c>
     </row>
     <row r="93" xml:space="preserve">
@@ -2624,10 +2606,10 @@
       </c>
       <c r="F93" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Myself magazine war rather someone these yet without. Want gun
-						treatment service wide prove. Exist mean campaign society
-						anyone consider.
-					</v>
+					Myself magazine war rather someone these yet without. Want gun
+					treatment service wide prove. Exist mean campaign society anyone
+					consider.
+				</v>
       </c>
     </row>
     <row r="94" xml:space="preserve">
@@ -2648,10 +2630,10 @@
       </c>
       <c r="F94" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Big become sense allow often majority view. Write dog ready
-						return several purpose.Seem late thus much reflect.
-						Piece lay wind.Team off bring hard.
-					</v>
+					Big become sense allow often majority view. Write dog ready
+					return several purpose.Seem late thus much reflect. Piece
+					lay wind.Team off bring hard.
+				</v>
       </c>
     </row>
     <row r="95" xml:space="preserve">
@@ -2672,10 +2654,10 @@
       </c>
       <c r="F95" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Data election officer decision. Improve summer avoid several
-						stuff others president. Both glass artist stand book popular
-						born through.
-					</v>
+					Data election officer decision. Improve summer avoid several
+					stuff others president. Both glass artist stand book popular born
+					through.
+				</v>
       </c>
     </row>
     <row r="96" xml:space="preserve">
@@ -2696,11 +2678,11 @@
       </c>
       <c r="F96" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Later region discover machine live later. Choice officer fast
-						begin capital anyone.Quickly stop stay bar glass above.
-						Suffer to recognize describe people.Sing involve choose
-						all owner decision.
-					</v>
+					Later region discover machine live later. Choice officer fast
+					begin capital anyone.Quickly stop stay bar glass above.
+					Suffer to recognize describe people.Sing involve choose all
+					owner decision.
+				</v>
       </c>
     </row>
     <row r="97" xml:space="preserve">
@@ -2721,9 +2703,9 @@
       </c>
       <c r="F97" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Production system nice ready century. Financial teach forward
-						listen mother least popular.
-					</v>
+					Production system nice ready century. Financial teach forward
+					listen mother least popular.
+				</v>
       </c>
     </row>
     <row r="98" xml:space="preserve">
@@ -2744,10 +2726,9 @@
       </c>
       <c r="F98" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Shoulder evidence military run court. Lose song song forward
-						yeah theory.Mr action election. Foreign spring guess
-						base.
-					</v>
+					Shoulder evidence military run court. Lose song song forward yeah
+					theory.Mr action election. Foreign spring guess base.
+				</v>
       </c>
     </row>
     <row r="99" xml:space="preserve">
@@ -2768,9 +2749,9 @@
       </c>
       <c r="F99" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Build effort best walk until he. Thought school stay listen
-						either fact up. Among budget manager build.
-					</v>
+					Build effort best walk until he. Thought school stay listen
+					either fact up. Among budget manager build.
+				</v>
       </c>
     </row>
     <row r="100" xml:space="preserve">
@@ -2791,11 +2772,10 @@
       </c>
       <c r="F100" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Church lawyer nor mouth. Wall trip account notice. While game
-						forward attention.Operation statement plan choose
-						capital. North too probably. Sell property develop suggest
-						know newspaper.
-					</v>
+					Church lawyer nor mouth. Wall trip account notice. While game
+					forward attention.Operation statement plan choose capital.
+					North too probably. Sell property develop suggest know newspaper.
+				</v>
       </c>
     </row>
     <row r="101" xml:space="preserve">
@@ -2816,10 +2796,10 @@
       </c>
       <c r="F101" t="str" xml:space="preserve">
         <v xml:space="preserve">
-						Cold feeling catch buy whom check. Million street cup feeling
-						understand million contain discuss. Worry along happy place
-						serious task.Room final assume garden.
-					</v>
+					Cold feeling catch buy whom check. Million street cup feeling
+					understand million contain discuss. Worry along happy place
+					serious task.Room final assume garden.
+				</v>
       </c>
     </row>
   </sheetData>
